--- a/AssignmentV2/Data/Generators_New.xlsx
+++ b/AssignmentV2/Data/Generators_New.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo Gutierrez\Desktop\Optimization in Modern Power Systems\Assignment\Opti\AssignmentV2\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxfavrot/Desktop/46750 Optimization in modern power systems/Assignment/Opti/AssignmentV2/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDEC4765-2509-4700-953A-2B0E4E20CCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3715D91A-05E0-EE42-AC77-036670022BDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{37D0B2D4-FDF1-45BA-8446-61EA4494B4A2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" activeTab="3" xr2:uid="{37D0B2D4-FDF1-45BA-8446-61EA4494B4A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Generators_New" sheetId="1" r:id="rId1"/>
-    <sheet name="python" sheetId="2" r:id="rId2"/>
+    <sheet name="Fuel_Cost_Absolute" sheetId="3" r:id="rId2"/>
+    <sheet name="Python_Gen_N_Data" sheetId="2" r:id="rId3"/>
+    <sheet name="Python_Gen_N_Z_Data" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
   <si>
     <t>Unit #</t>
   </si>
@@ -64,12 +66,21 @@
   <si>
     <t>PV</t>
   </si>
+  <si>
+    <t>Cost Type</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Co2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,8 +215,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,6 +401,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -546,52 +570,55 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -923,23 +950,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBAAAEA-FEF1-4B42-84BA-25EF3D06BC5D}">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -948,30 +977,30 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>152</v>
       </c>
       <c r="E2">
@@ -980,30 +1009,30 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>800000</v>
       </c>
       <c r="H2">
         <v>13</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>200</v>
       </c>
       <c r="J2">
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="3" spans="1:10">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>152</v>
       </c>
       <c r="E3">
@@ -1012,30 +1041,30 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>800000</v>
       </c>
       <c r="H3">
         <v>13</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>200</v>
       </c>
       <c r="J3">
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>200</v>
       </c>
       <c r="E4">
@@ -1044,30 +1073,30 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>800000</v>
       </c>
       <c r="H4">
         <v>20</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>200</v>
       </c>
       <c r="J4">
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
+    <row r="5" spans="1:10">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>200</v>
       </c>
       <c r="E5">
@@ -1076,30 +1105,30 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>820000</v>
       </c>
       <c r="H5">
         <v>20.5</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>200</v>
       </c>
       <c r="J5">
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>60</v>
       </c>
       <c r="E6">
@@ -1108,30 +1137,30 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>820000</v>
       </c>
       <c r="H6">
         <v>26</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>200</v>
       </c>
       <c r="J6">
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>155</v>
       </c>
       <c r="E7">
@@ -1140,30 +1169,30 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>800000</v>
       </c>
       <c r="H7">
         <v>10</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>200</v>
       </c>
       <c r="J7">
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>155</v>
       </c>
       <c r="E8">
@@ -1172,30 +1201,30 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>800000</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>200</v>
       </c>
       <c r="J8">
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>200</v>
       </c>
       <c r="E9">
@@ -1204,30 +1233,30 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>1450000</v>
       </c>
       <c r="H9">
         <v>6</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>200</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>200</v>
       </c>
       <c r="E10">
@@ -1236,30 +1265,30 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>1450000</v>
       </c>
       <c r="H10">
         <v>5</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>200</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>200</v>
       </c>
       <c r="E11">
@@ -1268,30 +1297,30 @@
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>1500000</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>200</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>200</v>
       </c>
       <c r="E12">
@@ -1300,30 +1329,30 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>1450000</v>
       </c>
       <c r="H12">
         <v>10</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>200</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="D13">
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1">
         <v>200</v>
       </c>
       <c r="E13">
@@ -1332,30 +1361,30 @@
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>1450000</v>
       </c>
       <c r="H13">
         <v>10.199999999999999</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>200</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>200</v>
       </c>
       <c r="E14">
@@ -1364,30 +1393,30 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>1450000</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>200</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>100</v>
       </c>
       <c r="E15">
@@ -1396,30 +1425,30 @@
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>820000</v>
       </c>
       <c r="H15">
         <v>39</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="1">
         <v>200</v>
       </c>
       <c r="J15">
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>60</v>
       </c>
       <c r="E16">
@@ -1428,30 +1457,30 @@
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>1500000</v>
       </c>
       <c r="H16">
         <v>5</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="1">
         <v>200</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="17" spans="1:17">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>200</v>
       </c>
       <c r="E17">
@@ -1460,18 +1489,159 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>800000</v>
       </c>
       <c r="H17">
         <v>19</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>200</v>
       </c>
       <c r="J17">
         <v>0.98599999999999999</v>
       </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1">
+        <v>5</v>
+      </c>
+      <c r="G21" s="1">
+        <v>6</v>
+      </c>
+      <c r="H21" s="1">
+        <v>7</v>
+      </c>
+      <c r="I21" s="1">
+        <v>8</v>
+      </c>
+      <c r="J21" s="1">
+        <v>9</v>
+      </c>
+      <c r="K21" s="1">
+        <v>10</v>
+      </c>
+      <c r="L21" s="1">
+        <v>11</v>
+      </c>
+      <c r="M21" s="1">
+        <v>12</v>
+      </c>
+      <c r="N21" s="1">
+        <v>13</v>
+      </c>
+      <c r="O21" s="1">
+        <v>14</v>
+      </c>
+      <c r="P21" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1">
+        <f>B2</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <f>B3</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <f>B4</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <f>B5</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <f>B6</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <f>B7</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <f>B8</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <f>B9</f>
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <f>B10</f>
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <f>B12</f>
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <f>B13</f>
+        <v>1</v>
+      </c>
+      <c r="N22" s="1">
+        <f>B14</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <f>B15</f>
+        <v>1</v>
+      </c>
+      <c r="P22" s="1">
+        <f>B16</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <f>B17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1479,13 +1649,712 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDEA3BA-FF72-BE4E-99F7-358C6FECE33C}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781F5A14-CD09-4D7D-B01E-8FDF2EB93508}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <f>Generators_New!A2</f>
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f>Generators_New!C2</f>
+        <v>Coal</v>
+      </c>
+      <c r="C2">
+        <f>Generators_New!D2</f>
+        <v>152</v>
+      </c>
+      <c r="D2">
+        <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B2,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
+        <v>40</v>
+      </c>
+      <c r="E2">
+        <f>Generators_New!G2</f>
+        <v>800000</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
+      </c>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <f>Generators_New!A3</f>
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <f>Generators_New!C3</f>
+        <v>Coal</v>
+      </c>
+      <c r="C3">
+        <f>Generators_New!D3</f>
+        <v>152</v>
+      </c>
+      <c r="D3">
+        <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B3,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <f>Generators_New!G3</f>
+        <v>800000</v>
+      </c>
+      <c r="F3">
+        <v>200</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <f>Generators_New!A4</f>
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <f>Generators_New!C4</f>
+        <v>Coal</v>
+      </c>
+      <c r="C4">
+        <f>Generators_New!D4</f>
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B4,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <f>Generators_New!G4</f>
+        <v>800000</v>
+      </c>
+      <c r="F4">
+        <v>200</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <f>Generators_New!A5</f>
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <f>Generators_New!C5</f>
+        <v>Gas</v>
+      </c>
+      <c r="C5">
+        <f>Generators_New!D5</f>
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B5,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <f>Generators_New!G5</f>
+        <v>820000</v>
+      </c>
+      <c r="F5">
+        <v>200</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <f>Generators_New!A6</f>
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <f>Generators_New!C6</f>
+        <v>Gas</v>
+      </c>
+      <c r="C6">
+        <f>Generators_New!D6</f>
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B6,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <f>Generators_New!G6</f>
+        <v>820000</v>
+      </c>
+      <c r="F6">
+        <v>200</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <f>Generators_New!A7</f>
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <f>Generators_New!C7</f>
+        <v>Coal</v>
+      </c>
+      <c r="C7">
+        <f>Generators_New!D7</f>
+        <v>155</v>
+      </c>
+      <c r="D7">
+        <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B7,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <f>Generators_New!G7</f>
+        <v>800000</v>
+      </c>
+      <c r="F7">
+        <v>200</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <f>Generators_New!A8</f>
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <f>Generators_New!C8</f>
+        <v>Coal</v>
+      </c>
+      <c r="C8">
+        <f>Generators_New!D8</f>
+        <v>155</v>
+      </c>
+      <c r="D8">
+        <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B8,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <f>Generators_New!G8</f>
+        <v>800000</v>
+      </c>
+      <c r="F8">
+        <v>200</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <f>Generators_New!A9</f>
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <f>Generators_New!C9</f>
+        <v>Wind</v>
+      </c>
+      <c r="C9">
+        <f>Generators_New!D9</f>
+        <v>200</v>
+      </c>
+      <c r="D9">
+        <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B9,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>Generators_New!G9</f>
+        <v>1450000</v>
+      </c>
+      <c r="F9">
+        <v>200</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <f>Generators_New!A10</f>
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <f>Generators_New!C10</f>
+        <v>Wind</v>
+      </c>
+      <c r="C10">
+        <f>Generators_New!D10</f>
+        <v>200</v>
+      </c>
+      <c r="D10">
+        <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B10,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>Generators_New!G10</f>
+        <v>1450000</v>
+      </c>
+      <c r="F10">
+        <v>200</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <f>Generators_New!A11</f>
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <f>Generators_New!C11</f>
+        <v>PV</v>
+      </c>
+      <c r="C11">
+        <f>Generators_New!D11</f>
+        <v>200</v>
+      </c>
+      <c r="D11">
+        <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B11,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>Generators_New!G11</f>
+        <v>1500000</v>
+      </c>
+      <c r="F11">
+        <v>200</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <f>Generators_New!A12</f>
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <f>Generators_New!C12</f>
+        <v>Wind</v>
+      </c>
+      <c r="C12">
+        <f>Generators_New!D12</f>
+        <v>200</v>
+      </c>
+      <c r="D12">
+        <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B12,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f>Generators_New!G12</f>
+        <v>1450000</v>
+      </c>
+      <c r="F12">
+        <v>200</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <f>Generators_New!A13</f>
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <f>Generators_New!C13</f>
+        <v>Wind</v>
+      </c>
+      <c r="C13">
+        <f>Generators_New!D13</f>
+        <v>200</v>
+      </c>
+      <c r="D13">
+        <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B13,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f>Generators_New!G13</f>
+        <v>1450000</v>
+      </c>
+      <c r="F13">
+        <v>200</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <f>Generators_New!A14</f>
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <f>Generators_New!C14</f>
+        <v>Wind</v>
+      </c>
+      <c r="C14">
+        <f>Generators_New!D14</f>
+        <v>200</v>
+      </c>
+      <c r="D14">
+        <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B14,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f>Generators_New!G14</f>
+        <v>1450000</v>
+      </c>
+      <c r="F14">
+        <v>200</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <f>Generators_New!A15</f>
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <f>Generators_New!C15</f>
+        <v>Gas</v>
+      </c>
+      <c r="C15">
+        <f>Generators_New!D15</f>
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B15,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <f>Generators_New!G15</f>
+        <v>820000</v>
+      </c>
+      <c r="F15">
+        <v>200</v>
+      </c>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <f>Generators_New!A16</f>
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <f>Generators_New!C16</f>
+        <v>PV</v>
+      </c>
+      <c r="C16">
+        <f>Generators_New!D16</f>
+        <v>60</v>
+      </c>
+      <c r="D16">
+        <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B16,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f>Generators_New!G16</f>
+        <v>1500000</v>
+      </c>
+      <c r="F16">
+        <v>200</v>
+      </c>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <f>Generators_New!A17</f>
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <f>Generators_New!C17</f>
+        <v>Coal</v>
+      </c>
+      <c r="C17">
+        <f>Generators_New!D17</f>
+        <v>200</v>
+      </c>
+      <c r="D17">
+        <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B17,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
+        <v>40</v>
+      </c>
+      <c r="E17">
+        <f>Generators_New!G17</f>
+        <v>800000</v>
+      </c>
+      <c r="F17">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EDF7477-18E2-494D-A787-DC4077632EFC}">
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <v>11</v>
+      </c>
+      <c r="L1">
+        <v>12</v>
+      </c>
+      <c r="M1">
+        <v>13</v>
+      </c>
+      <c r="N1">
+        <v>14</v>
+      </c>
+      <c r="O1">
+        <v>15</v>
+      </c>
+      <c r="P1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
+        <f>IF(Generators_New!B$22=0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>IF(Generators_New!C$22=0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>IF(Generators_New!D$22=0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>IF(Generators_New!E$22=0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>IF(Generators_New!F$22=0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>IF(Generators_New!G$22=0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>IF(Generators_New!H$22=0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f>IF(Generators_New!I$22=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>IF(Generators_New!J$22=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>IF(Generators_New!K$22=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>IF(Generators_New!L$22=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>IF(Generators_New!M$22=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>IF(Generators_New!N$22=0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <f>IF(Generators_New!O$22=0,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>IF(Generators_New!P$22=0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <f>IF(Generators_New!Q$22=0,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <f>IF(Generators_New!B$22=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <f>IF(Generators_New!C$22=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>IF(Generators_New!D$22=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>IF(Generators_New!E$22=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>IF(Generators_New!F$22=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>IF(Generators_New!G$22=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>IF(Generators_New!H$22=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>IF(Generators_New!I$22=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f>IF(Generators_New!J$22=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <f>IF(Generators_New!K$22=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <f>IF(Generators_New!L$22=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <f>IF(Generators_New!M$22=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <f>IF(Generators_New!N$22=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f>IF(Generators_New!O$22=1,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <f>IF(Generators_New!P$22=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f>IF(Generators_New!Q$22=1,1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/AssignmentV2/Data/Generators_New.xlsx
+++ b/AssignmentV2/Data/Generators_New.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxfavrot/Desktop/46750 Optimization in modern power systems/Assignment/Opti/AssignmentV2/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo Gutierrez\Desktop\Optimization in Modern Power Systems\Assignment\Opti\AssignmentV2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3715D91A-05E0-EE42-AC77-036670022BDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD47EE0-C0A3-40E6-89A0-BDC3158FF46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" activeTab="3" xr2:uid="{37D0B2D4-FDF1-45BA-8446-61EA4494B4A2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{37D0B2D4-FDF1-45BA-8446-61EA4494B4A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Generators_New" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,20 @@
     <sheet name="Python_Gen_N_Data" sheetId="2" r:id="rId3"/>
     <sheet name="Python_Gen_N_Z_Data" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -80,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,55 +583,54 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
     <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Avertissement" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Calcul" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Cellule liée" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Entrée" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Insatisfaisant" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Titre" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Titre 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Titre 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Titre 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Titre 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vérification" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -950,15 +962,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBAAAEA-FEF1-4B42-84BA-25EF3D06BC5D}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -990,7 +1002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1022,7 +1034,7 @@
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1054,7 +1066,7 @@
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1086,7 +1098,7 @@
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1118,7 +1130,7 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1150,7 +1162,7 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1182,7 +1194,7 @@
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1214,7 +1226,7 @@
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1246,7 +1258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1278,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1310,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1342,7 +1354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1374,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1406,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1438,7 +1450,7 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1470,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1502,7 +1514,7 @@
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1555,7 +1567,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1623,25 +1635,6 @@
         <f>B17</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1656,9 +1649,9 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1666,7 +1659,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1674,7 +1667,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1682,15 +1675,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1698,7 +1691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1715,13 +1708,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781F5A14-CD09-4D7D-B01E-8FDF2EB93508}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1741,7 +1740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>Generators_New!A2</f>
         <v>1</v>
@@ -1765,9 +1764,9 @@
       <c r="F2">
         <v>200</v>
       </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>Generators_New!A3</f>
         <v>2</v>
@@ -1791,9 +1790,9 @@
       <c r="F3">
         <v>200</v>
       </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>Generators_New!A4</f>
         <v>3</v>
@@ -1817,9 +1816,9 @@
       <c r="F4">
         <v>200</v>
       </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>Generators_New!A5</f>
         <v>4</v>
@@ -1843,9 +1842,9 @@
       <c r="F5">
         <v>200</v>
       </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>Generators_New!A6</f>
         <v>5</v>
@@ -1869,9 +1868,9 @@
       <c r="F6">
         <v>200</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>Generators_New!A7</f>
         <v>6</v>
@@ -1895,9 +1894,9 @@
       <c r="F7">
         <v>200</v>
       </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>Generators_New!A8</f>
         <v>7</v>
@@ -1921,9 +1920,9 @@
       <c r="F8">
         <v>200</v>
       </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>Generators_New!A9</f>
         <v>8</v>
@@ -1947,9 +1946,9 @@
       <c r="F9">
         <v>200</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>Generators_New!A10</f>
         <v>9</v>
@@ -1973,9 +1972,9 @@
       <c r="F10">
         <v>200</v>
       </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>Generators_New!A11</f>
         <v>10</v>
@@ -1999,9 +1998,9 @@
       <c r="F11">
         <v>200</v>
       </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>Generators_New!A12</f>
         <v>11</v>
@@ -2025,9 +2024,9 @@
       <c r="F12">
         <v>200</v>
       </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>Generators_New!A13</f>
         <v>12</v>
@@ -2051,9 +2050,9 @@
       <c r="F13">
         <v>200</v>
       </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <f>Generators_New!A14</f>
         <v>13</v>
@@ -2077,9 +2076,9 @@
       <c r="F14">
         <v>200</v>
       </c>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>Generators_New!A15</f>
         <v>14</v>
@@ -2103,9 +2102,9 @@
       <c r="F15">
         <v>200</v>
       </c>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>Generators_New!A16</f>
         <v>15</v>
@@ -2129,9 +2128,9 @@
       <c r="F16">
         <v>200</v>
       </c>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <f>Generators_New!A17</f>
         <v>16</v>
@@ -2155,7 +2154,7 @@
       <c r="F17">
         <v>200</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2166,13 +2165,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EDF7477-18E2-494D-A787-DC4077632EFC}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -2222,7 +2221,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>IF(Generators_New!B$22=0,1,0)</f>
         <v>1</v>
@@ -2288,7 +2287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>IF(Generators_New!B$22=1,1,0)</f>
         <v>0</v>

--- a/AssignmentV2/Data/Generators_New.xlsx
+++ b/AssignmentV2/Data/Generators_New.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo Gutierrez\Desktop\Optimization in Modern Power Systems\Assignment\Opti\AssignmentV2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD47EE0-C0A3-40E6-89A0-BDC3158FF46D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3042783-14A5-4D2E-AE7D-95D0131AAB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{37D0B2D4-FDF1-45BA-8446-61EA4494B4A2}"/>
+    <workbookView xWindow="30600" yWindow="1440" windowWidth="27000" windowHeight="14160" activeTab="2" xr2:uid="{37D0B2D4-FDF1-45BA-8446-61EA4494B4A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Generators_New" sheetId="1" r:id="rId1"/>
@@ -965,10 +965,17 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="8" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1709,7 +1716,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1717,6 +1724,7 @@
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="11.44140625" customWidth="1"/>
     <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1742,8 +1750,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <f>Generators_New!A2</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="str">
         <f>Generators_New!C2</f>
@@ -1768,8 +1775,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <f>Generators_New!A3</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="str">
         <f>Generators_New!C3</f>
@@ -1794,8 +1800,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f>Generators_New!A4</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="str">
         <f>Generators_New!C4</f>
@@ -1820,8 +1825,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f>Generators_New!A5</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="str">
         <f>Generators_New!C5</f>
@@ -1846,8 +1850,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f>Generators_New!A6</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="str">
         <f>Generators_New!C6</f>
@@ -1872,8 +1875,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f>Generators_New!A7</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="str">
         <f>Generators_New!C7</f>
@@ -1898,8 +1900,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f>Generators_New!A8</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="str">
         <f>Generators_New!C8</f>
@@ -1924,8 +1925,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f>Generators_New!A9</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="str">
         <f>Generators_New!C9</f>
@@ -1950,8 +1950,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
-        <f>Generators_New!A10</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="str">
         <f>Generators_New!C10</f>
@@ -1976,8 +1975,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
-        <f>Generators_New!A11</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="str">
         <f>Generators_New!C11</f>
@@ -2002,8 +2000,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <f>Generators_New!A12</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="str">
         <f>Generators_New!C12</f>
@@ -2028,8 +2025,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
-        <f>Generators_New!A13</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="str">
         <f>Generators_New!C13</f>
@@ -2054,8 +2050,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
-        <f>Generators_New!A14</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="str">
         <f>Generators_New!C14</f>
@@ -2080,8 +2075,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
-        <f>Generators_New!A15</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="str">
         <f>Generators_New!C15</f>
@@ -2106,8 +2100,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
-        <f>Generators_New!A16</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="str">
         <f>Generators_New!C16</f>
@@ -2132,8 +2125,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
-        <f>Generators_New!A17</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="str">
         <f>Generators_New!C17</f>

--- a/AssignmentV2/Data/Generators_New.xlsx
+++ b/AssignmentV2/Data/Generators_New.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo Gutierrez\Desktop\Optimization in Modern Power Systems\Assignment\Opti\AssignmentV2\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leonr\OneDrive\Documents\DTU\OptimizationInPS\ProjectGit\Opti\AssignmentV2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3042783-14A5-4D2E-AE7D-95D0131AAB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5F642E-3D25-4145-9EB0-8806A5ACC298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30600" yWindow="1440" windowWidth="27000" windowHeight="14160" activeTab="2" xr2:uid="{37D0B2D4-FDF1-45BA-8446-61EA4494B4A2}"/>
+    <workbookView xWindow="55335" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{37D0B2D4-FDF1-45BA-8446-61EA4494B4A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Generators_New" sheetId="1" r:id="rId1"/>
@@ -964,20 +964,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBAAAEA-FEF1-4B42-84BA-25EF3D06BC5D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="8" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.86328125" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1009,7 +1010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1020,7 +1021,8 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>152</v>
+        <f>I2</f>
+        <v>200</v>
       </c>
       <c r="E2">
         <v>30.4</v>
@@ -1041,7 +1043,7 @@
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1052,7 +1054,8 @@
         <v>10</v>
       </c>
       <c r="D3" s="1">
-        <v>152</v>
+        <f t="shared" ref="D3:D17" si="0">I3</f>
+        <v>200</v>
       </c>
       <c r="E3">
         <v>30.4</v>
@@ -1073,7 +1076,7 @@
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1084,6 +1087,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1">
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="E4">
@@ -1105,7 +1109,7 @@
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1116,6 +1120,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="1">
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="E5">
@@ -1125,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>820000</v>
+        <v>200000</v>
       </c>
       <c r="H5">
         <v>20.5</v>
@@ -1137,7 +1142,7 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1145,31 +1150,32 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1">
-        <v>60</v>
+        <f>I6</f>
+        <v>200</v>
       </c>
       <c r="E6">
-        <v>12</v>
+        <v>54.25</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" s="1">
-        <v>820000</v>
+        <v>800000</v>
       </c>
       <c r="H6">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="I6" s="1">
         <v>200</v>
       </c>
       <c r="J6">
-        <v>0.42899999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.98599999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1177,31 +1183,32 @@
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1">
-        <v>155</v>
+        <f>I7</f>
+        <v>200</v>
       </c>
       <c r="E7">
-        <v>54.25</v>
+        <v>140</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" s="1">
-        <v>800000</v>
+        <v>1000000</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="I7" s="1">
         <v>200</v>
       </c>
       <c r="J7">
-        <v>0.98599999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1209,54 +1216,56 @@
         <v>0</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1">
-        <v>155</v>
+        <f>I8</f>
+        <v>200</v>
       </c>
       <c r="E8">
-        <v>54.25</v>
+        <v>50</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" s="1">
-        <v>800000</v>
+        <v>1000000</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
         <v>200</v>
       </c>
       <c r="J8">
-        <v>0.98599999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1">
+        <f>I9</f>
         <v>200</v>
       </c>
       <c r="E9">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>1450000</v>
+        <v>600000</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I9" s="1">
         <v>200</v>
@@ -1265,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1273,31 +1282,32 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="1">
+        <f>I10</f>
+        <v>200</v>
+      </c>
+      <c r="E10">
         <v>12</v>
       </c>
-      <c r="D10" s="1">
-        <v>200</v>
-      </c>
-      <c r="E10">
-        <v>100</v>
-      </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" s="1">
-        <v>1450000</v>
+        <v>200000</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="I10" s="1">
         <v>200</v>
       </c>
       <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.42899999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1305,31 +1315,32 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1">
+        <f>I11</f>
         <v>200</v>
       </c>
       <c r="E11">
-        <v>300</v>
+        <v>54.25</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11" s="1">
-        <v>1500000</v>
+        <v>800000</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I11" s="1">
         <v>200</v>
       </c>
       <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.98599999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1340,19 +1351,20 @@
         <v>12</v>
       </c>
       <c r="D12" s="1">
+        <f>I12</f>
         <v>200</v>
       </c>
       <c r="E12">
-        <v>108.5</v>
+        <v>100</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>1450000</v>
+        <v>1000000</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I12" s="1">
         <v>200</v>
@@ -1361,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1372,19 +1384,20 @@
         <v>12</v>
       </c>
       <c r="D13" s="1">
+        <f>I13</f>
         <v>200</v>
       </c>
       <c r="E13">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>1450000</v>
+        <v>1000000</v>
       </c>
       <c r="H13">
-        <v>10.199999999999999</v>
+        <v>5</v>
       </c>
       <c r="I13" s="1">
         <v>200</v>
@@ -1393,27 +1406,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1">
+        <f>I14</f>
         <v>200</v>
       </c>
       <c r="E14">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>1450000</v>
+        <v>600000</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1425,7 +1439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1433,63 +1447,65 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1">
-        <v>100</v>
+        <f>I15</f>
+        <v>200</v>
       </c>
       <c r="E15">
+        <v>108.5</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H15">
         <v>10</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>820000</v>
-      </c>
-      <c r="H15">
-        <v>39</v>
-      </c>
       <c r="I15" s="1">
         <v>200</v>
       </c>
       <c r="J15">
-        <v>0.42899999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D16" s="1">
-        <v>60</v>
+        <f>I16</f>
+        <v>200</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" s="1">
-        <v>1500000</v>
+        <v>200000</v>
       </c>
       <c r="H16">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="I16" s="1">
         <v>200</v>
       </c>
       <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.42899999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1500,6 +1516,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="1">
+        <f>I17</f>
         <v>200</v>
       </c>
       <c r="E17">
@@ -1521,7 +1538,7 @@
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1574,7 +1591,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1587,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="1">
-        <f>B4</f>
+        <f>B3</f>
         <v>0</v>
       </c>
       <c r="E22" s="1">
@@ -1608,7 +1625,7 @@
       </c>
       <c r="I22" s="1">
         <f>B9</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" s="1">
         <f>B10</f>
@@ -1628,7 +1645,7 @@
       </c>
       <c r="N22" s="1">
         <f>B14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" s="1">
         <f>B15</f>
@@ -1636,7 +1653,7 @@
       </c>
       <c r="P22" s="1">
         <f>B16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="1">
         <f>B17</f>
@@ -1653,12 +1670,12 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1666,23 +1683,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1690,7 +1707,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1698,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1715,20 +1732,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781F5A14-CD09-4D7D-B01E-8FDF2EB93508}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.46484375" customWidth="1"/>
+    <col min="5" max="5" width="16.1328125" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1748,7 +1765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1758,22 +1775,23 @@
       </c>
       <c r="C2">
         <f>Generators_New!D2</f>
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="D2">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B2,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E2">
         <f>Generators_New!G2</f>
         <v>800000</v>
       </c>
       <c r="F2">
+        <f>Generators_New!I2</f>
         <v>200</v>
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1783,22 +1801,23 @@
       </c>
       <c r="C3">
         <f>Generators_New!D3</f>
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="D3">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B3,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E3">
         <f>Generators_New!G3</f>
         <v>800000</v>
       </c>
       <c r="F3">
+        <f>Generators_New!I3</f>
         <v>200</v>
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1812,18 +1831,19 @@
       </c>
       <c r="D4">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B4,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E4">
         <f>Generators_New!G4</f>
         <v>800000</v>
       </c>
       <c r="F4">
+        <f>Generators_New!I4</f>
         <v>200</v>
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1837,99 +1857,103 @@
       </c>
       <c r="D5">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B5,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E5">
         <f>Generators_New!G5</f>
-        <v>820000</v>
+        <v>200000</v>
       </c>
       <c r="F5">
+        <f>Generators_New!I5</f>
         <v>200</v>
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="str">
         <f>Generators_New!C6</f>
-        <v>Gas</v>
+        <v>Coal</v>
       </c>
       <c r="C6">
         <f>Generators_New!D6</f>
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="D6">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B6,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E6">
         <f>Generators_New!G6</f>
-        <v>820000</v>
+        <v>800000</v>
       </c>
       <c r="F6">
+        <f>Generators_New!I6</f>
         <v>200</v>
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="str">
         <f>Generators_New!C7</f>
-        <v>Coal</v>
+        <v>Wind</v>
       </c>
       <c r="C7">
         <f>Generators_New!D7</f>
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="D7">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B7,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <f>Generators_New!G7</f>
-        <v>800000</v>
+        <v>1000000</v>
       </c>
       <c r="F7">
+        <f>Generators_New!I7</f>
         <v>200</v>
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="str">
         <f>Generators_New!C8</f>
-        <v>Coal</v>
+        <v>Wind</v>
       </c>
       <c r="C8">
         <f>Generators_New!D8</f>
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="D8">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B8,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <f>Generators_New!G8</f>
-        <v>800000</v>
+        <v>1000000</v>
       </c>
       <c r="F8">
+        <f>Generators_New!I8</f>
         <v>200</v>
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="str">
         <f>Generators_New!C9</f>
-        <v>Wind</v>
+        <v>PV</v>
       </c>
       <c r="C9">
         <f>Generators_New!D9</f>
@@ -1941,20 +1965,21 @@
       </c>
       <c r="E9">
         <f>Generators_New!G9</f>
-        <v>1450000</v>
+        <v>600000</v>
       </c>
       <c r="F9">
+        <f>Generators_New!I9</f>
         <v>200</v>
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="str">
         <f>Generators_New!C10</f>
-        <v>Wind</v>
+        <v>Gas</v>
       </c>
       <c r="C10">
         <f>Generators_New!D10</f>
@@ -1962,24 +1987,25 @@
       </c>
       <c r="D10">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B10,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10">
         <f>Generators_New!G10</f>
-        <v>1450000</v>
+        <v>200000</v>
       </c>
       <c r="F10">
+        <f>Generators_New!I10</f>
         <v>200</v>
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="str">
         <f>Generators_New!C11</f>
-        <v>PV</v>
+        <v>Coal</v>
       </c>
       <c r="C11">
         <f>Generators_New!D11</f>
@@ -1987,18 +2013,19 @@
       </c>
       <c r="D11">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B11,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E11">
         <f>Generators_New!G11</f>
-        <v>1500000</v>
+        <v>800000</v>
       </c>
       <c r="F11">
+        <f>Generators_New!I11</f>
         <v>200</v>
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2016,14 +2043,15 @@
       </c>
       <c r="E12">
         <f>Generators_New!G12</f>
-        <v>1450000</v>
+        <v>1000000</v>
       </c>
       <c r="F12">
+        <f>Generators_New!I12</f>
         <v>200</v>
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2041,20 +2069,21 @@
       </c>
       <c r="E13">
         <f>Generators_New!G13</f>
-        <v>1450000</v>
+        <v>1000000</v>
       </c>
       <c r="F13">
+        <f>Generators_New!I13</f>
         <v>200</v>
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="str">
         <f>Generators_New!C14</f>
-        <v>Wind</v>
+        <v>PV</v>
       </c>
       <c r="C14">
         <f>Generators_New!D14</f>
@@ -2066,64 +2095,67 @@
       </c>
       <c r="E14">
         <f>Generators_New!G14</f>
-        <v>1450000</v>
+        <v>600000</v>
       </c>
       <c r="F14">
+        <f>Generators_New!I14</f>
         <v>200</v>
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="str">
         <f>Generators_New!C15</f>
-        <v>Gas</v>
+        <v>Wind</v>
       </c>
       <c r="C15">
         <f>Generators_New!D15</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D15">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B15,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <f>Generators_New!G15</f>
-        <v>820000</v>
+        <v>1000000</v>
       </c>
       <c r="F15">
+        <f>Generators_New!I15</f>
         <v>200</v>
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="str">
         <f>Generators_New!C16</f>
-        <v>PV</v>
+        <v>Gas</v>
       </c>
       <c r="C16">
         <f>Generators_New!D16</f>
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="D16">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B16,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E16">
         <f>Generators_New!G16</f>
-        <v>1500000</v>
+        <v>200000</v>
       </c>
       <c r="F16">
+        <f>Generators_New!I16</f>
         <v>200</v>
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2137,13 +2169,14 @@
       </c>
       <c r="D17">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B17,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E17">
         <f>Generators_New!G17</f>
         <v>800000</v>
       </c>
       <c r="F17">
+        <f>Generators_New!I17</f>
         <v>200</v>
       </c>
       <c r="G17" s="2"/>
@@ -2158,12 +2191,12 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -2213,7 +2246,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2">
         <f>IF(Generators_New!B$22=0,1,0)</f>
         <v>1</v>
@@ -2244,7 +2277,7 @@
       </c>
       <c r="H2">
         <f>IF(Generators_New!I$22=0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <f>IF(Generators_New!J$22=0,1,0)</f>
@@ -2264,7 +2297,7 @@
       </c>
       <c r="M2">
         <f>IF(Generators_New!N$22=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <f>IF(Generators_New!O$22=0,1,0)</f>
@@ -2272,14 +2305,14 @@
       </c>
       <c r="O2">
         <f>IF(Generators_New!P$22=0,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <f>IF(Generators_New!Q$22=0,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3">
         <f>IF(Generators_New!B$22=1,1,0)</f>
         <v>0</v>
@@ -2310,7 +2343,7 @@
       </c>
       <c r="H3">
         <f>IF(Generators_New!I$22=1,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <f>IF(Generators_New!J$22=1,1,0)</f>
@@ -2330,7 +2363,7 @@
       </c>
       <c r="M3">
         <f>IF(Generators_New!N$22=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
         <f>IF(Generators_New!O$22=1,1,0)</f>
@@ -2338,7 +2371,7 @@
       </c>
       <c r="O3">
         <f>IF(Generators_New!P$22=1,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
         <f>IF(Generators_New!Q$22=1,1,0)</f>

--- a/AssignmentV2/Data/Generators_New.xlsx
+++ b/AssignmentV2/Data/Generators_New.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leonr\OneDrive\Documents\DTU\OptimizationInPS\ProjectGit\Opti\AssignmentV2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5F642E-3D25-4145-9EB0-8806A5ACC298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFA5A0B-BA4A-46CE-93A6-2CE2652E7A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55335" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{37D0B2D4-FDF1-45BA-8446-61EA4494B4A2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="2" xr2:uid="{37D0B2D4-FDF1-45BA-8446-61EA4494B4A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Generators_New" sheetId="1" r:id="rId1"/>
@@ -964,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CBAAAEA-FEF1-4B42-84BA-25EF3D06BC5D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1021,8 +1021,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <f>I2</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E2">
         <v>30.4</v>
@@ -1037,7 +1036,7 @@
         <v>13</v>
       </c>
       <c r="I2" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J2">
         <v>0.98599999999999999</v>
@@ -1054,8 +1053,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D17" si="0">I3</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E3">
         <v>30.4</v>
@@ -1070,7 +1068,7 @@
         <v>13</v>
       </c>
       <c r="I3" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J3">
         <v>0.98599999999999999</v>
@@ -1087,8 +1085,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E4">
         <v>75</v>
@@ -1103,7 +1100,7 @@
         <v>20</v>
       </c>
       <c r="I4" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J4">
         <v>0.98599999999999999</v>
@@ -1120,8 +1117,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E5">
         <v>206.85</v>
@@ -1136,7 +1132,7 @@
         <v>20.5</v>
       </c>
       <c r="I5" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J5">
         <v>0.42899999999999999</v>
@@ -1153,8 +1149,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="1">
-        <f>I6</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E6">
         <v>54.25</v>
@@ -1169,7 +1164,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J6">
         <v>0.98599999999999999</v>
@@ -1186,8 +1181,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="1">
-        <f>I7</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E7">
         <v>140</v>
@@ -1202,7 +1196,7 @@
         <v>10.199999999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1219,8 +1213,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="1">
-        <f>I8</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E8">
         <v>50</v>
@@ -1235,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1252,8 +1245,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="1">
-        <f>I9</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -1268,7 +1260,7 @@
         <v>5</v>
       </c>
       <c r="I9" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1285,8 +1277,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="1">
-        <f>I10</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E10">
         <v>12</v>
@@ -1301,7 +1292,7 @@
         <v>26</v>
       </c>
       <c r="I10" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J10">
         <v>0.42899999999999999</v>
@@ -1318,8 +1309,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="1">
-        <f>I11</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E11">
         <v>54.25</v>
@@ -1334,7 +1324,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J11">
         <v>0.98599999999999999</v>
@@ -1351,8 +1341,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="1">
-        <f>I12</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -1367,7 +1356,7 @@
         <v>6</v>
       </c>
       <c r="I12" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1384,8 +1373,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="1">
-        <f>I13</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -1400,7 +1388,7 @@
         <v>5</v>
       </c>
       <c r="I13" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1417,8 +1405,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="1">
-        <f>I14</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E14">
         <v>300</v>
@@ -1433,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1450,8 +1437,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="1">
-        <f>I15</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E15">
         <v>108.5</v>
@@ -1466,7 +1452,7 @@
         <v>10</v>
       </c>
       <c r="I15" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1483,8 +1469,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="1">
-        <f>I16</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -1499,7 +1484,7 @@
         <v>39</v>
       </c>
       <c r="I16" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J16">
         <v>0.42899999999999999</v>
@@ -1516,8 +1501,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="1">
-        <f>I17</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E17">
         <v>20</v>
@@ -1532,7 +1516,7 @@
         <v>19</v>
       </c>
       <c r="I17" s="1">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J17">
         <v>0.98599999999999999</v>
@@ -1732,8 +1716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781F5A14-CD09-4D7D-B01E-8FDF2EB93508}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1775,7 +1759,7 @@
       </c>
       <c r="C2">
         <f>Generators_New!D2</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D2">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B2,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
@@ -1787,7 +1771,7 @@
       </c>
       <c r="F2">
         <f>Generators_New!I2</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G2" s="2"/>
     </row>
@@ -1801,7 +1785,7 @@
       </c>
       <c r="C3">
         <f>Generators_New!D3</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D3">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B3,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
@@ -1813,7 +1797,7 @@
       </c>
       <c r="F3">
         <f>Generators_New!I3</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G3" s="2"/>
     </row>
@@ -1827,7 +1811,7 @@
       </c>
       <c r="C4">
         <f>Generators_New!D4</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D4">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B4,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
@@ -1839,7 +1823,7 @@
       </c>
       <c r="F4">
         <f>Generators_New!I4</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G4" s="2"/>
     </row>
@@ -1853,7 +1837,7 @@
       </c>
       <c r="C5">
         <f>Generators_New!D5</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D5">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B5,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
@@ -1865,7 +1849,7 @@
       </c>
       <c r="F5">
         <f>Generators_New!I5</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G5" s="2"/>
     </row>
@@ -1879,7 +1863,7 @@
       </c>
       <c r="C6">
         <f>Generators_New!D6</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D6">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B6,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
@@ -1891,7 +1875,7 @@
       </c>
       <c r="F6">
         <f>Generators_New!I6</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G6" s="2"/>
     </row>
@@ -1905,7 +1889,7 @@
       </c>
       <c r="C7">
         <f>Generators_New!D7</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D7">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B7,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
@@ -1917,7 +1901,7 @@
       </c>
       <c r="F7">
         <f>Generators_New!I7</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G7" s="2"/>
     </row>
@@ -1931,7 +1915,7 @@
       </c>
       <c r="C8">
         <f>Generators_New!D8</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D8">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B8,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
@@ -1943,7 +1927,7 @@
       </c>
       <c r="F8">
         <f>Generators_New!I8</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -1957,7 +1941,7 @@
       </c>
       <c r="C9">
         <f>Generators_New!D9</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D9">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B9,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
@@ -1969,7 +1953,7 @@
       </c>
       <c r="F9">
         <f>Generators_New!I9</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -1983,7 +1967,7 @@
       </c>
       <c r="C10">
         <f>Generators_New!D10</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D10">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B10,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
@@ -1995,7 +1979,7 @@
       </c>
       <c r="F10">
         <f>Generators_New!I10</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G10" s="2"/>
     </row>
@@ -2009,7 +1993,7 @@
       </c>
       <c r="C11">
         <f>Generators_New!D11</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D11">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B11,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
@@ -2021,7 +2005,7 @@
       </c>
       <c r="F11">
         <f>Generators_New!I11</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G11" s="2"/>
     </row>
@@ -2035,7 +2019,7 @@
       </c>
       <c r="C12">
         <f>Generators_New!D12</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D12">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B12,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
@@ -2047,7 +2031,7 @@
       </c>
       <c r="F12">
         <f>Generators_New!I12</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G12" s="2"/>
     </row>
@@ -2061,7 +2045,7 @@
       </c>
       <c r="C13">
         <f>Generators_New!D13</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D13">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B13,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
@@ -2073,7 +2057,7 @@
       </c>
       <c r="F13">
         <f>Generators_New!I13</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G13" s="2"/>
     </row>
@@ -2087,7 +2071,7 @@
       </c>
       <c r="C14">
         <f>Generators_New!D14</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D14">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B14,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
@@ -2099,7 +2083,7 @@
       </c>
       <c r="F14">
         <f>Generators_New!I14</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G14" s="2"/>
     </row>
@@ -2113,7 +2097,7 @@
       </c>
       <c r="C15">
         <f>Generators_New!D15</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D15">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B15,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
@@ -2125,7 +2109,7 @@
       </c>
       <c r="F15">
         <f>Generators_New!I15</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -2139,7 +2123,7 @@
       </c>
       <c r="C16">
         <f>Generators_New!D16</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D16">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B16,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
@@ -2151,7 +2135,7 @@
       </c>
       <c r="F16">
         <f>Generators_New!I16</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -2165,7 +2149,7 @@
       </c>
       <c r="C17">
         <f>Generators_New!D17</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="D17">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B17,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
@@ -2177,7 +2161,7 @@
       </c>
       <c r="F17">
         <f>Generators_New!I17</f>
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G17" s="2"/>
     </row>

--- a/AssignmentV2/Data/Generators_New.xlsx
+++ b/AssignmentV2/Data/Generators_New.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leonr\OneDrive\Documents\DTU\OptimizationInPS\ProjectGit\Opti\AssignmentV2\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo Gutierrez\Desktop\Optimization in Modern Power Systems\Assignment\Opti\AssignmentV2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFA5A0B-BA4A-46CE-93A6-2CE2652E7A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836B9CD1-7397-468B-B83C-8B59D8B56B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="2" xr2:uid="{37D0B2D4-FDF1-45BA-8446-61EA4494B4A2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{37D0B2D4-FDF1-45BA-8446-61EA4494B4A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Generators_New" sheetId="1" r:id="rId1"/>
@@ -968,17 +968,17 @@
       <selection activeCell="D2" sqref="D2:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="13.19921875" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.86328125" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1653,13 +1653,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDEA3BA-FF72-BE4E-99F7-358C6FECE33C}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1691,20 +1691,20 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1716,20 +1716,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781F5A14-CD09-4D7D-B01E-8FDF2EB93508}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.46484375" customWidth="1"/>
-    <col min="5" max="5" width="16.1328125" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="D7">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B7,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <f>Generators_New!G7</f>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="D8">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B8,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <f>Generators_New!G8</f>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="D9">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B9,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <f>Generators_New!G9</f>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="D12">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B12,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E12">
         <f>Generators_New!G12</f>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="D13">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B13,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E13">
         <f>Generators_New!G13</f>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="D14">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B14,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <f>Generators_New!G14</f>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D15">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B15,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <f>Generators_New!G15</f>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2178,9 +2178,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>IF(Generators_New!B$22=0,1,0)</f>
         <v>1</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>IF(Generators_New!B$22=1,1,0)</f>
         <v>0</v>

--- a/AssignmentV2/Data/Generators_New.xlsx
+++ b/AssignmentV2/Data/Generators_New.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo Gutierrez\Desktop\Optimization in Modern Power Systems\Assignment\Opti\AssignmentV2\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leonr\OneDrive\Documents\DTU\OptimizationInPS\ProjectGit\Opti\AssignmentV2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836B9CD1-7397-468B-B83C-8B59D8B56B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFA5A0B-BA4A-46CE-93A6-2CE2652E7A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{37D0B2D4-FDF1-45BA-8446-61EA4494B4A2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" activeTab="2" xr2:uid="{37D0B2D4-FDF1-45BA-8446-61EA4494B4A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Generators_New" sheetId="1" r:id="rId1"/>
@@ -968,17 +968,17 @@
       <selection activeCell="D2" sqref="D2:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="13.19921875" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.86328125" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1653,13 +1653,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FDEA3BA-FF72-BE4E-99F7-358C6FECE33C}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1691,20 +1691,20 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1716,20 +1716,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781F5A14-CD09-4D7D-B01E-8FDF2EB93508}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.46484375" customWidth="1"/>
+    <col min="5" max="5" width="16.1328125" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="D7">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B7,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <f>Generators_New!G7</f>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="D8">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B8,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <f>Generators_New!G8</f>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="D9">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B9,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <f>Generators_New!G9</f>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2009,7 +2009,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="D12">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B12,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <f>Generators_New!G12</f>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="D13">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B13,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <f>Generators_New!G13</f>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="D14">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B14,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <f>Generators_New!G14</f>
@@ -2087,7 +2087,7 @@
       </c>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="D15">
         <f>INDEX(Fuel_Cost_Absolute!$B$2:$B$6,MATCH( Python_Gen_N_Data!B15,Fuel_Cost_Absolute!$A$2:$A$6,0))</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <f>Generators_New!G15</f>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2178,9 +2178,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2">
         <f>IF(Generators_New!B$22=0,1,0)</f>
         <v>1</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3">
         <f>IF(Generators_New!B$22=1,1,0)</f>
         <v>0</v>
